--- a/va_facility_data_2025-02-20/Portland VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Portland%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Portland VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Portland%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R724edb66831240b6a9a3b74eba18b00d"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rf9542755485441b6985fb6e338cb199a"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re14d3bc4b20148f18bd482f1e768e284"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R60e36a2768ed4529bf2122ded156f5d0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rc2be7c97b5834d73bebed98be5cbd00b"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R8a5e232df94a489ab017cca1a7eed9ce"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R13a225f3acb54f75b54ca29832e24727"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R09e31dd896544f1f91a2fefc7843ae16"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf4dcba5c8f604731a1b95fcfee38bc59"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R083175dcdb694ac1a6421046d4a3af36"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R17cd0e200fdc4772a471f2084a2f18e6"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Ra9708a03e60647bdb47647d54626763a"/>
   </x:sheets>
 </x:workbook>
 </file>
